--- a/views/books.xlsx
+++ b/views/books.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,10 +461,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -486,10 +484,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -511,10 +507,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="A4" t="n">
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -536,10 +530,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="A5" t="n">
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -561,10 +553,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="A6" t="n">
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -586,10 +576,8 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="A7" t="n">
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -611,10 +599,8 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="A8" t="n">
+        <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -633,6 +619,903 @@
       </c>
       <c r="E8" t="n">
         <v>555</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Học máy</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Ian Goodfellow</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Khoa học</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Lập trình C++</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Bjarne Stroustrup</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Khoa học</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1984</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>George Orwell</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Tiểu thuyết</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Thế giới phẳng</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Thomas L. Friedman</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Kinh tế</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Sapiens</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Yuval Noah Harari</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Khoa học</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Nghệ thuật chiến tranh</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Sun Tzu</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Quân sự</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Đắc Nhân Tâm</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Dale Carnegie</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Tâm lý</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Bắt đầu với Python</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Charles Severance</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Khoa học</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Tâm lý học hành vi</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>B.F. Skinner</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Tâm lý</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Moby Dick</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Herman Melville</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Tiểu thuyết</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Những người khốn khổ</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Victor Hugo</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Tiểu thuyết</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Thuyết tương đối</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Albert Einstein</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Khoa học</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Một đời người</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Khaled Hosseini</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Tiểu thuyết</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Lịch sử loài người</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Yuval Noah Harari</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Khoa học</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Đời sống bí mật</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Dan Brown</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Tiểu thuyết</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Hành trình về phương Đông</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Hermann Hesse</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Tiểu thuyết</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Bên kia bờ ánh sáng</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Trịnh Xuân Thuận</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Khoa học</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>12 quy luật tự nhiên</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Jordan B. Peterson</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Tâm lý</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Đi tìm lẽ sống</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Viktor E. Frankl</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Tâm lý</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Tấm lòng cao cả</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Alexander Dumas</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Tiểu thuyết</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Nỗi buồn chiến tranh</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Bảo Ninh</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Tiểu thuyết</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Chạy trốn khỏi thực tại</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Haruki Murakami</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Tiểu thuyết</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Tình yêu thời thổ tả</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Gabriel Garcia Marquez</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Tiểu thuyết</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Trí tuệ nhân tạo</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Stuart Russell</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Khoa học</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Những điều nhỏ bé</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Harlan Coben</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Tiểu thuyết</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Sống như một người chiến thắng</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Tim Ferriss</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Kinh doanh</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Tư duy nhanh và chậm</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Daniel Kahneman</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Tâm lý</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Địa lý học của sự bất bình đẳng</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Jared Diamond</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Khoa học</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Hành trình của một tâm hồn</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Paulo Coelho</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Tiểu thuyết</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Mặt trời vẫn mọc</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Ernest Hemingway</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Tiểu thuyết</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Bức tranh của Dorian Gray</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Oscar Wilde</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Tiểu thuyết</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Hãy sống như ngày mai là ngày cuối cùng</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Vicki Robin</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Kinh doanh</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Bước nhảy vọt</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Richard Branson</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Kinh doanh</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Người dơi</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Bob Kane</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Truyện tranh</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Cuộc đời của Pi</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Yann Martel</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Tiểu thuyết</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Thế giới của Sophie</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Jostein Gaarder</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Tiểu thuyết</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Cô gái đến từ hôm qua</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Nguyễn Nhật Ánh</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Tiểu thuyết</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Hạnh phúc là một lựa chọn</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Barry Schwartz</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Tâm lý</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>sách mới thêm</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>thêmtu</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>thêmtuaaaa</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>2222</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/views/books.xlsx
+++ b/views/books.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>Số Lượng</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Số Lần Mượn</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -480,7 +485,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -502,8 +510,13 @@
           <t>Trinh thám</t>
         </is>
       </c>
-      <c r="E3" t="n">
-        <v>6</v>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="4">
@@ -528,6 +541,9 @@
       <c r="E4" t="n">
         <v>5</v>
       </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -549,7 +565,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="F5" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -574,6 +593,9 @@
       <c r="E6" t="n">
         <v>5</v>
       </c>
+      <c r="F6" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -597,6 +619,9 @@
       <c r="E7" t="n">
         <v>11</v>
       </c>
+      <c r="F7" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -618,7 +643,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>555</v>
+        <v>550</v>
+      </c>
+      <c r="F8" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="9">
@@ -643,6 +671,9 @@
       <c r="E9" t="n">
         <v>8</v>
       </c>
+      <c r="F9" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -666,6 +697,9 @@
       <c r="E10" t="n">
         <v>10</v>
       </c>
+      <c r="F10" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -687,6 +721,9 @@
       <c r="E11" t="n">
         <v>7</v>
       </c>
+      <c r="F11" t="n">
+        <v>111</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -710,6 +747,9 @@
       <c r="E12" t="n">
         <v>3</v>
       </c>
+      <c r="F12" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -733,6 +773,9 @@
       <c r="E13" t="n">
         <v>9</v>
       </c>
+      <c r="F13" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -756,6 +799,9 @@
       <c r="E14" t="n">
         <v>4</v>
       </c>
+      <c r="F14" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -779,6 +825,9 @@
       <c r="E15" t="n">
         <v>12</v>
       </c>
+      <c r="F15" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -802,6 +851,9 @@
       <c r="E16" t="n">
         <v>5</v>
       </c>
+      <c r="F16" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -825,6 +877,9 @@
       <c r="E17" t="n">
         <v>6</v>
       </c>
+      <c r="F17" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -848,6 +903,9 @@
       <c r="E18" t="n">
         <v>2</v>
       </c>
+      <c r="F18" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -871,6 +929,9 @@
       <c r="E19" t="n">
         <v>3</v>
       </c>
+      <c r="F19" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -894,6 +955,9 @@
       <c r="E20" t="n">
         <v>7</v>
       </c>
+      <c r="F20" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -917,6 +981,9 @@
       <c r="E21" t="n">
         <v>8</v>
       </c>
+      <c r="F21" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -940,6 +1007,9 @@
       <c r="E22" t="n">
         <v>10</v>
       </c>
+      <c r="F22" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -962,6 +1032,9 @@
       </c>
       <c r="E23" t="n">
         <v>5</v>
+      </c>
+      <c r="F23" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="24">
@@ -986,6 +1059,9 @@
       <c r="E24" t="n">
         <v>4</v>
       </c>
+      <c r="F24" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1009,6 +1085,9 @@
       <c r="E25" t="n">
         <v>6</v>
       </c>
+      <c r="F25" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1032,6 +1111,9 @@
       <c r="E26" t="n">
         <v>9</v>
       </c>
+      <c r="F26" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1055,6 +1137,9 @@
       <c r="E27" t="n">
         <v>8</v>
       </c>
+      <c r="F27" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1078,6 +1163,9 @@
       <c r="E28" t="n">
         <v>3</v>
       </c>
+      <c r="F28" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1101,6 +1189,9 @@
       <c r="E29" t="n">
         <v>7</v>
       </c>
+      <c r="F29" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1124,6 +1215,9 @@
       <c r="E30" t="n">
         <v>6</v>
       </c>
+      <c r="F30" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1147,6 +1241,9 @@
       <c r="E31" t="n">
         <v>5</v>
       </c>
+      <c r="F31" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1170,6 +1267,9 @@
       <c r="E32" t="n">
         <v>4</v>
       </c>
+      <c r="F32" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1193,6 +1293,9 @@
       <c r="E33" t="n">
         <v>6</v>
       </c>
+      <c r="F33" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1216,6 +1319,9 @@
       <c r="E34" t="n">
         <v>8</v>
       </c>
+      <c r="F34" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1239,6 +1345,9 @@
       <c r="E35" t="n">
         <v>9</v>
       </c>
+      <c r="F35" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1262,6 +1371,9 @@
       <c r="E36" t="n">
         <v>7</v>
       </c>
+      <c r="F36" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1285,6 +1397,9 @@
       <c r="E37" t="n">
         <v>5</v>
       </c>
+      <c r="F37" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1308,6 +1423,9 @@
       <c r="E38" t="n">
         <v>4</v>
       </c>
+      <c r="F38" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1331,6 +1449,9 @@
       <c r="E39" t="n">
         <v>6</v>
       </c>
+      <c r="F39" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1354,6 +1475,9 @@
       <c r="E40" t="n">
         <v>3</v>
       </c>
+      <c r="F40" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1377,6 +1501,9 @@
       <c r="E41" t="n">
         <v>5</v>
       </c>
+      <c r="F41" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1400,6 +1527,9 @@
       <c r="E42" t="n">
         <v>8</v>
       </c>
+      <c r="F42" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1423,6 +1553,9 @@
       <c r="E43" t="n">
         <v>7</v>
       </c>
+      <c r="F43" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1446,6 +1579,9 @@
       <c r="E44" t="n">
         <v>4</v>
       </c>
+      <c r="F44" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1469,6 +1605,9 @@
       <c r="E45" t="n">
         <v>10</v>
       </c>
+      <c r="F45" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1492,6 +1631,9 @@
       <c r="E46" t="n">
         <v>6</v>
       </c>
+      <c r="F46" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1512,10 +1654,11 @@
           <t>thêmtuaaaa</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>2222</t>
-        </is>
+      <c r="E47" t="n">
+        <v>2222</v>
+      </c>
+      <c r="F47" t="n">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
